--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14040" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="运营后台登录" sheetId="1" r:id="rId1"/>
     <sheet name="优惠券" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -27,9 +28,6 @@
   </si>
   <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>token</t>
   </si>
   <si>
     <t>data_type</t>
@@ -275,6 +273,140 @@
     <t>{
 "code":500,
  "msg":"请输入您的验证码"
+}</t>
+  </si>
+  <si>
+    <t>expected_1</t>
+  </si>
+  <si>
+    <t>优惠券不足，无法领取优惠券。</t>
+  </si>
+  <si>
+    <t>{
+            "couponId": "",
+            "minutes": 1,
+            "perReceiveType": "0",
+            "perReceiveNum": "",
+            "publishNum": "0",
+            "receivedNum": "",
+            "useStatus": "0",
+            "couponDisplay": "1,2"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 200
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 500,
+    "msg": "您来晚了,该优惠券已经被领完了"
+}</t>
+  </si>
+  <si>
+    <t>优惠券限制张数，无法领取优惠券。</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>{
+            "couponId": "#couponId#",
+            "minutes": 2,
+            "perReceiveType": "1",
+            "perReceiveNum": "1",
+            "publishNum": "100",
+            "receivedNum": "#receivedNum#",
+            "useStatus": "0",
+            "couponDisplay": "1,2"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 500,
+    "msg": "不好意思,已经超出了该优惠券的领取限额"
+}</t>
+  </si>
+  <si>
+    <t>优惠券状态为停用，无法领取优惠券。</t>
+  </si>
+  <si>
+    <t>{
+            "couponId": "#couponId#",
+            "minutes": 10,
+            "perReceiveType": "0",
+            "perReceiveNum": "",
+            "publishNum": "100",
+            "receivedNum": "#receivedNum#",
+            "useStatus": "1",
+            "couponDisplay": "1,2"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 500,
+    "msg": "优惠券已下线"
+}</t>
+  </si>
+  <si>
+    <t>优惠券领取时间已过，无法领取优惠券。</t>
+  </si>
+  <si>
+    <t>{
+            "couponId": "#couponId#",
+            "minutes": 1,
+            "perReceiveType": "0",
+            "perReceiveNum": "",
+            "publishNum": "100",
+            "receivedNum": "#receivedNum#",
+            "useStatus": "1",
+            "couponDisplay": "1,2"
+}</t>
+  </si>
+  <si>
+    <t>设置为领券中心,商品详情不可查看，则无法找到该优惠券。</t>
+  </si>
+  <si>
+    <t>{
+            "couponId": "#couponId#",
+            "minutes": 10,
+            "perReceiveType": "0",
+            "perReceiveNum": "",
+            "publishNum": "100",
+            "receivedNum": "#receivedNum#",
+            "useStatus": "0",
+            "couponDisplay": ""
+}</t>
+  </si>
+  <si>
+    <t>设置为领券中心、商品详情可查看，则可以找到该优惠券。</t>
+  </si>
+  <si>
+    <t>{
+            "couponId": "#couponId#",
+            "minutes": 1,
+            "perReceiveType": "0",
+            "perReceiveNum": "",
+            "publishNum": "100",
+            "receivedNum": "#receivedNum#",
+            "useStatus": "0",
+            "couponDisplay": "1,2"
+}</t>
+  </si>
+  <si>
+    <t>设置为已过期，或已停用，将无法查看到该优惠券。</t>
+  </si>
+  <si>
+    <t>{
+            "couponId": "#couponId#",
+            "minutes": 0.05,
+            "perReceiveType": "0",
+            "perReceiveNum": "",
+            "publishNum": "100",
+            "receivedNum": "#receivedNum#",
+            "useStatus": "1",
+            "couponDisplay": "1,2"
 }</t>
   </si>
 </sst>
@@ -283,10 +415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -298,81 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,39 +445,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,6 +481,97 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -450,181 +582,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,9 +778,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,26 +850,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -703,41 +865,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,157 +878,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1217,26 +1352,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="42.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="12.9230769230769"/>
     <col min="4" max="4" width="41.2307692307692" customWidth="1"/>
-    <col min="5" max="5" width="6.53846153846154" customWidth="1"/>
-    <col min="6" max="6" width="10.3846153846154" customWidth="1"/>
-    <col min="7" max="7" width="61.2115384615385" customWidth="1"/>
-    <col min="8" max="8" width="50.8846153846154" customWidth="1"/>
-    <col min="9" max="9" width="10.2307692307692" customWidth="1"/>
+    <col min="5" max="5" width="10.3846153846154" customWidth="1"/>
+    <col min="6" max="6" width="61.2115384615385" customWidth="1"/>
+    <col min="7" max="7" width="50.8846153846154" customWidth="1"/>
+    <col min="8" max="8" width="10.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1261,405 +1395,396 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="2" customFormat="1" ht="68" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="1" ht="68" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" ht="68" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="4" customFormat="1" ht="68" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="68" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="68" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="6" customFormat="1" ht="68" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="68" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="68" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="8" customFormat="1" ht="68" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="68" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="68" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="10" customFormat="1" ht="68" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="11" customFormat="1" ht="68" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="12" customFormat="1" ht="68" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="13" customFormat="1" ht="68" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13">
-        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="14" customFormat="1" ht="68" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14">
-        <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="68" spans="1:8">
+    </row>
+    <row r="15" customFormat="1" ht="68" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15">
-        <v>2</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="68" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="68" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16">
-        <v>2</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="68" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="68" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17">
-        <v>2</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="68" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="68" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18">
-        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1671,13 +1796,204 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="6.89423076923077" customWidth="1"/>
+    <col min="2" max="2" width="56.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="8.30769230769231" customWidth="1"/>
+    <col min="4" max="4" width="45.0288461538462" customWidth="1"/>
+    <col min="5" max="5" width="19.0576923076923" customWidth="1"/>
+    <col min="6" max="6" width="73.0673076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="168" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="168" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="168" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="168" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="168" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="168" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="168" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="$A2:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="2.69230769230769" customWidth="1"/>
+    <col min="2" max="2" width="56.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="11.3461538461538" customWidth="1"/>
+    <col min="4" max="4" width="9.03846153846154" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12220" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="运营后台登录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -74,7 +74,7 @@
   <si>
     <t>{
 "code":500,
- "msg":"请输入正确的账号"
+ "msg":"账号不存在"
 }</t>
   </si>
   <si>
@@ -98,7 +98,7 @@
   <si>
     <t>{
 "code":500,
- "msg":"请输入密码"
+ "msg":"账号或密码错误"
 }</t>
   </si>
   <si>
@@ -120,12 +120,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-"code":500,
- "msg":"您输入的账号与密码不匹配"
-}</t>
-  </si>
-  <si>
     <t>密码登录-输入后台没有的手机号</t>
   </si>
   <si>
@@ -167,7 +161,7 @@
   <si>
     <t>{
 "code":500,
- "msg":"对不起，您尚未成为系统用户"
+ "msg":"您还未注册，请联系管理员"
 }</t>
   </si>
   <si>
@@ -182,7 +176,7 @@
   <si>
     <t>{
 "code":500,
- "msg":"请输入您的手机号码"
+ "msg":"手机号格式错误，请检查你的手机号码"
 }</t>
   </si>
   <si>
@@ -195,12 +189,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-"code":500,
- "msg":"您输入的手机号码不正确，请重新输入"
-}</t>
-  </si>
-  <si>
     <t>验证码登录-输入过期的验证码进行登录</t>
   </si>
   <si>
@@ -229,8 +217,8 @@
   </si>
   <si>
     <t>{
-"code":500,
- "msg":"您输入的手机号码有误，请重新输入"
+"code":622,
+ "msg":"手机号格式错误，请检查你的手机号码"
 }</t>
   </si>
   <si>
@@ -249,6 +237,12 @@
     <t>{
     "mobile":"",
     "smsCode":""
+}</t>
+  </si>
+  <si>
+    <t>{
+"code":620,
+ "msg":"手机号不能为空"
 }</t>
   </si>
   <si>
@@ -407,6 +401,18 @@
             "receivedNum": "#receivedNum#",
             "useStatus": "1",
             "couponDisplay": "1,2"
+}</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>期望提示</t>
+  </si>
+  <si>
+    <t>{
+"code":500,
+ "msg":"对不起，您尚未成为系统用户"
 }</t>
   </si>
 </sst>
@@ -1354,8 +1360,8 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1367,7 +1373,7 @@
     <col min="5" max="5" width="10.3846153846154" customWidth="1"/>
     <col min="6" max="6" width="61.2115384615385" customWidth="1"/>
     <col min="7" max="7" width="50.8846153846154" customWidth="1"/>
-    <col min="8" max="8" width="10.2307692307692" customWidth="1"/>
+    <col min="8" max="8" width="38.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1531,7 +1537,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="68" spans="1:7">
@@ -1539,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1551,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="68" spans="1:7">
@@ -1562,22 +1568,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="68" spans="1:7">
@@ -1585,22 +1591,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="68" spans="1:7">
@@ -1608,22 +1614,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="68" spans="1:7">
@@ -1631,22 +1637,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="68" spans="1:7">
@@ -1654,22 +1660,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="68" spans="1:7">
@@ -1677,22 +1683,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="68" spans="1:7">
@@ -1700,22 +1706,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="68" spans="1:7">
@@ -1723,22 +1729,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="68" spans="1:7">
@@ -1746,22 +1752,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="68" spans="1:7">
@@ -1769,22 +1775,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1804,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1829,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="168" spans="1:6">
@@ -1837,19 +1843,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="168" spans="1:6">
@@ -1857,19 +1863,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="168" spans="1:6">
@@ -1877,19 +1883,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="168" spans="1:6">
@@ -1897,19 +1903,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="168" spans="1:6">
@@ -1917,16 +1923,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1937,16 +1943,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1957,16 +1963,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -1981,20 +1987,204 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A2:$XFD8"/>
+      <selection activeCell="C17" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="2.69230769230769" customWidth="1"/>
-    <col min="2" max="2" width="56.3846153846154" customWidth="1"/>
-    <col min="3" max="3" width="11.3461538461538" customWidth="1"/>
-    <col min="4" max="4" width="9.03846153846154" customWidth="1"/>
+    <col min="1" max="1" width="13.7884615384615" customWidth="1"/>
+    <col min="2" max="2" width="42.6153846153846" customWidth="1"/>
+    <col min="3" max="3" width="50.8846153846154" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" ht="68" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="68" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="68" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="68" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="68" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="68" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="68" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="68" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" ht="68" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="68" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="68" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="68" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" ht="68" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="68" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="68" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="68" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12220"/>
+    <workbookView windowWidth="28800" windowHeight="12220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="运营后台登录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -270,15 +270,20 @@
 }</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
     <t>expected_1</t>
   </si>
   <si>
+    <t>expected_2</t>
+  </si>
+  <si>
     <t>优惠券不足，无法领取优惠券。</t>
   </si>
   <si>
     <t>{
             "couponId": "",
-            "minutes": 1,
             "perReceiveType": "0",
             "perReceiveNum": "",
             "publishNum": "0",
@@ -307,7 +312,6 @@
   <si>
     <t>{
             "couponId": "#couponId#",
-            "minutes": 2,
             "perReceiveType": "1",
             "perReceiveNum": "1",
             "publishNum": "100",
@@ -328,7 +332,6 @@
   <si>
     <t>{
             "couponId": "#couponId#",
-            "minutes": 10,
             "perReceiveType": "0",
             "perReceiveNum": "",
             "publishNum": "100",
@@ -347,24 +350,11 @@
     <t>优惠券领取时间已过，无法领取优惠券。</t>
   </si>
   <si>
+    <t>设置为领券中心,商品详情不可查看，则无法找到该优惠券。</t>
+  </si>
+  <si>
     <t>{
             "couponId": "#couponId#",
-            "minutes": 1,
-            "perReceiveType": "0",
-            "perReceiveNum": "",
-            "publishNum": "100",
-            "receivedNum": "#receivedNum#",
-            "useStatus": "1",
-            "couponDisplay": "1,2"
-}</t>
-  </si>
-  <si>
-    <t>设置为领券中心,商品详情不可查看，则无法找到该优惠券。</t>
-  </si>
-  <si>
-    <t>{
-            "couponId": "#couponId#",
-            "minutes": 10,
             "perReceiveType": "0",
             "perReceiveNum": "",
             "publishNum": "100",
@@ -379,7 +369,6 @@
   <si>
     <t>{
             "couponId": "#couponId#",
-            "minutes": 1,
             "perReceiveType": "0",
             "perReceiveNum": "",
             "publishNum": "100",
@@ -390,18 +379,6 @@
   </si>
   <si>
     <t>设置为已过期，或已停用，将无法查看到该优惠券。</t>
-  </si>
-  <si>
-    <t>{
-            "couponId": "#couponId#",
-            "minutes": 0.05,
-            "perReceiveType": "0",
-            "perReceiveNum": "",
-            "publishNum": "100",
-            "receivedNum": "#receivedNum#",
-            "useStatus": "1",
-            "couponDisplay": "1,2"
-}</t>
   </si>
   <si>
     <t>操作</t>
@@ -436,15 +413,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,8 +441,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,35 +534,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,65 +548,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -588,31 +565,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,151 +691,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,11 +761,68 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,24 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -840,201 +856,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,8 +1340,8 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1802,23 +1782,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.89423076923077" customWidth="1"/>
     <col min="2" max="2" width="56.3846153846154" customWidth="1"/>
     <col min="3" max="3" width="8.30769230769231" customWidth="1"/>
-    <col min="4" max="4" width="45.0288461538462" customWidth="1"/>
-    <col min="5" max="5" width="19.0576923076923" customWidth="1"/>
-    <col min="6" max="6" width="73.0673076923077" customWidth="1"/>
+    <col min="4" max="4" width="8.30769230769231" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.0288461538462" customWidth="1"/>
+    <col min="6" max="6" width="19.0576923076923" customWidth="1"/>
+    <col min="7" max="7" width="50.1923076923077" customWidth="1"/>
+    <col min="8" max="8" width="11.5384615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,153 +1810,180 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" ht="168" spans="1:6">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="152" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="168" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="152" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="168" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="152" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="168" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="152" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="168" spans="1:6">
+    </row>
+    <row r="6" customFormat="1" ht="152" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="168" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="152" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="168" spans="1:6">
+    <row r="8" customFormat="1" ht="152" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.05</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3">
         <v>2</v>
       </c>
     </row>
